--- a/Descargas/R15_Juzgado De Garantia De Calama_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Calama_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -567,37 +567,37 @@
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Extranje. Ingresan O Intentan Egresar C/Documentos Falsific.</t>
+          <t xml:space="preserve">Estupro.</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
+          <t xml:space="preserve">Extranje. Ingresan O Intentan Egresar C/Documentos Falsific.</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
+          <t xml:space="preserve">Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
+          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
         </is>
       </c>
       <c r="B40" s="65">
@@ -607,7 +607,7 @@
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
+          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
         </is>
       </c>
       <c r="B41" s="65">
@@ -617,17 +617,17 @@
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
+          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
         </is>
       </c>
       <c r="B42" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
+          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
         </is>
       </c>
       <c r="B43" s="65">
@@ -637,27 +637,27 @@
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Hurto De Bienes Pertenecientes A Redes De Suministro Publico</t>
+          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
         </is>
       </c>
       <c r="B46" s="65">
@@ -667,77 +667,77 @@
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+          <t xml:space="preserve">Hurto De Bienes Pertenecientes A Redes De Suministro Publico</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
         </is>
       </c>
       <c r="B48" s="65">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
         </is>
       </c>
       <c r="B49" s="65">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B50" s="65">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Infrac. Ley Gral Telecom.art.letras A,B,C Y D (Excl.letra E)</t>
+          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
         </is>
       </c>
       <c r="B52" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Infraccion Articulo 454 C.penal.</t>
+          <t xml:space="preserve">Infrac. Ley Gral Telecom.art.letras A,B,C Y D (Excl.letra E)</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Infracciones A La Seguridad Social.</t>
+          <t xml:space="preserve">Infraccion Articulo 454 C.penal.</t>
         </is>
       </c>
       <c r="B54" s="65">
@@ -747,77 +747,77 @@
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
+          <t xml:space="preserve">Infracciones A La Seguridad Social.</t>
         </is>
       </c>
       <c r="B55" s="65">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Injuria (Accion Privada).</t>
+          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
         </is>
       </c>
       <c r="B56" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
         </is>
       </c>
       <c r="B57" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B58" s="65">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B59" s="65">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Maltrato Corp. Menor. O Personas Vul.  Art. 403 Bis Inc. 1°.</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B60" s="65">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Maltrato Corp. Menor. O Personas Vul.  Art. 403 Bis Inc. 1°.</t>
         </is>
       </c>
       <c r="B61" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B62" s="65">
@@ -827,67 +827,67 @@
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B63" s="65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B64" s="65">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
         </is>
       </c>
       <c r="B66" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B67" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B68" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B69" s="65">
@@ -897,7 +897,7 @@
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
+          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
         </is>
       </c>
       <c r="B70" s="65">
@@ -907,7 +907,7 @@
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
         </is>
       </c>
       <c r="B71" s="65">
@@ -917,47 +917,47 @@
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B75" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B76" s="65">
@@ -967,27 +967,27 @@
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B77" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B78" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B79" s="65">
@@ -997,17 +997,17 @@
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B80" s="65">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Produccion Material Pornografico Utilizando Menores 18 Años.</t>
         </is>
       </c>
       <c r="B81" s="65">
@@ -1017,27 +1017,27 @@
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Robo De Vehículo Utilizando Elementos Distractivos</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B84" s="65">
@@ -1047,120 +1047,140 @@
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo De Vehículo Utilizando Elementos Distractivos</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B87" s="65">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
         </is>
       </c>
       <c r="B91" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B93" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B94" s="65">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
+          <t xml:space="preserve">Violacion  De Morada.</t>
+        </is>
+      </c>
+      <c r="B96" s="65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c t="inlineStr" r="A97">
+        <is>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+        </is>
+      </c>
+      <c r="B97" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c t="inlineStr" r="A98">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B96" s="65">
+      <c r="B98" s="65">
         <v>1</v>
       </c>
     </row>
